--- a/files/address_new.xlsx
+++ b/files/address_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\MyRPA\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D275077-E668-477D-B777-E4B94115DECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9698BED-EDFD-42B8-8F62-5557579AC670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10010" yWindow="5640" windowWidth="17500" windowHeight="10400" xr2:uid="{C8DBD9A3-3BE5-4C0D-B898-1EA6E2A5B887}"/>
+    <workbookView xWindow="1400" yWindow="230" windowWidth="19850" windowHeight="10820" xr2:uid="{C8DBD9A3-3BE5-4C0D-B898-1EA6E2A5B887}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3485,7 +3485,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3495,6 +3495,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3528,7 +3534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3543,6 +3549,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3860,8 +3875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C095317B-B249-49C3-9963-807269AE3D41}">
   <dimension ref="A1:I235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="C208" sqref="C208"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="D244" sqref="D244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3933,32 +3948,32 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="4"/>
+      <c r="H3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
@@ -5603,32 +5618,32 @@
       </c>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H65" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I65" s="4"/>
+      <c r="H65" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
@@ -6614,32 +6629,32 @@
       </c>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C102" s="3" t="s">
+      <c r="B102" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F102" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G102" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H102" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="4"/>
+      <c r="H102" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
@@ -6803,32 +6818,32 @@
       </c>
       <c r="I108" s="4"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A109" s="3" t="s">
+    <row r="109" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C109" s="3" t="s">
+      <c r="B109" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F109" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G109" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="H109" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I109" s="4"/>
+      <c r="H109" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
@@ -7569,32 +7584,32 @@
       </c>
       <c r="I136" s="4"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A137" s="3" t="s">
+    <row r="137" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A137" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C137" s="3" t="s">
+      <c r="B137" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="F137" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="G137" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="H137" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I137" s="4"/>
+      <c r="H137" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I137" s="6"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
@@ -7870,32 +7885,32 @@
       </c>
       <c r="I147" s="4"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A148" s="3" t="s">
+    <row r="148" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A148" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C148" s="3" t="s">
+      <c r="B148" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="F148" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="G148" s="3" t="s">
+      <c r="G148" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="H148" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I148" s="4"/>
+      <c r="H148" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" s="6"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
@@ -8061,32 +8076,32 @@
       </c>
       <c r="I154" s="4"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A155" s="3" t="s">
+    <row r="155" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A155" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C155" s="3" t="s">
+      <c r="B155" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="F155" s="3" t="s">
+      <c r="F155" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="G155" s="3" t="s">
+      <c r="G155" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="H155" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I155" s="4"/>
+      <c r="H155" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" s="6"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
@@ -8642,32 +8657,32 @@
         <v>616</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A176" s="3" t="s">
+    <row r="176" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A176" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="B176" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C176" s="3" t="s">
+      <c r="B176" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D176" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="E176" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="F176" s="3" t="s">
+      <c r="F176" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="G176" s="3" t="s">
+      <c r="G176" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="H176" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I176" s="4"/>
+      <c r="H176" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I176" s="6"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A177" s="3" t="s">
@@ -10054,32 +10069,32 @@
       </c>
       <c r="I227" s="4"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A228" s="3" t="s">
+    <row r="228" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A228" s="5" t="s">
         <v>1073</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="5" t="s">
         <v>1074</v>
       </c>
-      <c r="D228" s="3" t="s">
+      <c r="D228" s="5" t="s">
         <v>1075</v>
       </c>
-      <c r="E228" s="3" t="s">
+      <c r="E228" s="5" t="s">
         <v>1076</v>
       </c>
-      <c r="F228" s="3" t="s">
+      <c r="F228" s="5" t="s">
         <v>1077</v>
       </c>
-      <c r="G228" s="3" t="s">
+      <c r="G228" s="5" t="s">
         <v>1078</v>
       </c>
-      <c r="H228" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I228" s="4"/>
+      <c r="H228" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I228" s="6"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A229" s="3" t="s">
@@ -10189,32 +10204,32 @@
       </c>
       <c r="I232" s="4"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A233" s="3" t="s">
+    <row r="233" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A233" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C233" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="D233" s="3" t="s">
+      <c r="D233" s="5" t="s">
         <v>1104</v>
       </c>
-      <c r="E233" s="3" t="s">
+      <c r="E233" s="5" t="s">
         <v>1105</v>
       </c>
-      <c r="F233" s="3" t="s">
+      <c r="F233" s="5" t="s">
         <v>1106</v>
       </c>
-      <c r="G233" s="3" t="s">
+      <c r="G233" s="5" t="s">
         <v>1125</v>
       </c>
-      <c r="H233" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I233" s="4"/>
+      <c r="H233" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I233" s="6"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A234" s="3" t="s">
@@ -10243,32 +10258,32 @@
       </c>
       <c r="I234" s="4"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A235" s="3" t="s">
+    <row r="235" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A235" s="5" t="s">
         <v>1113</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="5" t="s">
         <v>1114</v>
       </c>
-      <c r="D235" s="3" t="s">
+      <c r="D235" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="E235" s="3" t="s">
+      <c r="E235" s="5" t="s">
         <v>1116</v>
       </c>
-      <c r="F235" s="3" t="s">
+      <c r="F235" s="5" t="s">
         <v>1117</v>
       </c>
-      <c r="G235" s="3" t="s">
+      <c r="G235" s="5" t="s">
         <v>1118</v>
       </c>
-      <c r="H235" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I235" s="4"/>
+      <c r="H235" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I235" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
